--- a/BLCL2O_0409/BLCL2O_0409.xlsx
+++ b/BLCL2O_0409/BLCL2O_0409.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hallgató\Desktop\TGgit\BLCL2O_OSGyak\BLCL2O_0409\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFA9059-1DE1-4904-A3E3-D0674FBEDAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B464A2D9-C852-4B2C-897F-9CBA950A71AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F91BE5D-865B-4FBC-A31A-2C86232F8193}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8F91BE5D-865B-4FBC-A31A-2C86232F8193}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="1-2 tasks" sheetId="1" r:id="rId1"/>
+    <sheet name="3. task" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="241">
   <si>
     <t>Processz</t>
   </si>
@@ -105,13 +106,667 @@
   </si>
   <si>
     <t>(BEF-Beérk.)</t>
+  </si>
+  <si>
+    <t>A processz</t>
+  </si>
+  <si>
+    <t>B processz</t>
+  </si>
+  <si>
+    <t>C processz</t>
+  </si>
+  <si>
+    <t>Rescheudle</t>
+  </si>
+  <si>
+    <t>Clock tick</t>
+  </si>
+  <si>
+    <t>p_usrpi</t>
+  </si>
+  <si>
+    <t>p_cpu</t>
+  </si>
+  <si>
+    <t>Running before</t>
+  </si>
+  <si>
+    <t>Running after</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>30.</t>
+  </si>
+  <si>
+    <t>31.</t>
+  </si>
+  <si>
+    <t>32.</t>
+  </si>
+  <si>
+    <t>33.</t>
+  </si>
+  <si>
+    <t>34.</t>
+  </si>
+  <si>
+    <t>35.</t>
+  </si>
+  <si>
+    <t>36.</t>
+  </si>
+  <si>
+    <t>37.</t>
+  </si>
+  <si>
+    <t>38.</t>
+  </si>
+  <si>
+    <t>39.</t>
+  </si>
+  <si>
+    <t>40.</t>
+  </si>
+  <si>
+    <t>41.</t>
+  </si>
+  <si>
+    <t>42.</t>
+  </si>
+  <si>
+    <t>43.</t>
+  </si>
+  <si>
+    <t>44.</t>
+  </si>
+  <si>
+    <t>45.</t>
+  </si>
+  <si>
+    <t>46.</t>
+  </si>
+  <si>
+    <t>47.</t>
+  </si>
+  <si>
+    <t>48.</t>
+  </si>
+  <si>
+    <t>49.</t>
+  </si>
+  <si>
+    <t>50.</t>
+  </si>
+  <si>
+    <t>51.</t>
+  </si>
+  <si>
+    <t>52.</t>
+  </si>
+  <si>
+    <t>53.</t>
+  </si>
+  <si>
+    <t>54.</t>
+  </si>
+  <si>
+    <t>55.</t>
+  </si>
+  <si>
+    <t>56.</t>
+  </si>
+  <si>
+    <t>57.</t>
+  </si>
+  <si>
+    <t>58.</t>
+  </si>
+  <si>
+    <t>59.</t>
+  </si>
+  <si>
+    <t>60.</t>
+  </si>
+  <si>
+    <t>61.</t>
+  </si>
+  <si>
+    <t>62.</t>
+  </si>
+  <si>
+    <t>63.</t>
+  </si>
+  <si>
+    <t>64.</t>
+  </si>
+  <si>
+    <t>65.</t>
+  </si>
+  <si>
+    <t>66.</t>
+  </si>
+  <si>
+    <t>67.</t>
+  </si>
+  <si>
+    <t>68.</t>
+  </si>
+  <si>
+    <t>69.</t>
+  </si>
+  <si>
+    <t>70.</t>
+  </si>
+  <si>
+    <t>71.</t>
+  </si>
+  <si>
+    <t>72.</t>
+  </si>
+  <si>
+    <t>73.</t>
+  </si>
+  <si>
+    <t>74.</t>
+  </si>
+  <si>
+    <t>75.</t>
+  </si>
+  <si>
+    <t>76.</t>
+  </si>
+  <si>
+    <t>77.</t>
+  </si>
+  <si>
+    <t>78.</t>
+  </si>
+  <si>
+    <t>79.</t>
+  </si>
+  <si>
+    <t>80.</t>
+  </si>
+  <si>
+    <t>81.</t>
+  </si>
+  <si>
+    <t>82.</t>
+  </si>
+  <si>
+    <t>83.</t>
+  </si>
+  <si>
+    <t>84.</t>
+  </si>
+  <si>
+    <t>85.</t>
+  </si>
+  <si>
+    <t>86.</t>
+  </si>
+  <si>
+    <t>87.</t>
+  </si>
+  <si>
+    <t>88.</t>
+  </si>
+  <si>
+    <t>89.</t>
+  </si>
+  <si>
+    <t>90.</t>
+  </si>
+  <si>
+    <t>91.</t>
+  </si>
+  <si>
+    <t>92.</t>
+  </si>
+  <si>
+    <t>93.</t>
+  </si>
+  <si>
+    <t>94.</t>
+  </si>
+  <si>
+    <t>95.</t>
+  </si>
+  <si>
+    <t>96.</t>
+  </si>
+  <si>
+    <t>97.</t>
+  </si>
+  <si>
+    <t>98.</t>
+  </si>
+  <si>
+    <t>99.</t>
+  </si>
+  <si>
+    <t>100.</t>
+  </si>
+  <si>
+    <t>101.</t>
+  </si>
+  <si>
+    <t>102.</t>
+  </si>
+  <si>
+    <t>103.</t>
+  </si>
+  <si>
+    <t>104.</t>
+  </si>
+  <si>
+    <t>105.</t>
+  </si>
+  <si>
+    <t>106.</t>
+  </si>
+  <si>
+    <t>107.</t>
+  </si>
+  <si>
+    <t>108.</t>
+  </si>
+  <si>
+    <t>109.</t>
+  </si>
+  <si>
+    <t>110.</t>
+  </si>
+  <si>
+    <t>111.</t>
+  </si>
+  <si>
+    <t>112.</t>
+  </si>
+  <si>
+    <t>113.</t>
+  </si>
+  <si>
+    <t>114.</t>
+  </si>
+  <si>
+    <t>115.</t>
+  </si>
+  <si>
+    <t>116.</t>
+  </si>
+  <si>
+    <t>117.</t>
+  </si>
+  <si>
+    <t>118.</t>
+  </si>
+  <si>
+    <t>119.</t>
+  </si>
+  <si>
+    <t>120.</t>
+  </si>
+  <si>
+    <t>121.</t>
+  </si>
+  <si>
+    <t>122.</t>
+  </si>
+  <si>
+    <t>123.</t>
+  </si>
+  <si>
+    <t>124.</t>
+  </si>
+  <si>
+    <t>125.</t>
+  </si>
+  <si>
+    <t>126.</t>
+  </si>
+  <si>
+    <t>127.</t>
+  </si>
+  <si>
+    <t>128.</t>
+  </si>
+  <si>
+    <t>129.</t>
+  </si>
+  <si>
+    <t>130.</t>
+  </si>
+  <si>
+    <t>131.</t>
+  </si>
+  <si>
+    <t>132.</t>
+  </si>
+  <si>
+    <t>133.</t>
+  </si>
+  <si>
+    <t>134.</t>
+  </si>
+  <si>
+    <t>135.</t>
+  </si>
+  <si>
+    <t>136.</t>
+  </si>
+  <si>
+    <t>137.</t>
+  </si>
+  <si>
+    <t>138.</t>
+  </si>
+  <si>
+    <t>139.</t>
+  </si>
+  <si>
+    <t>140.</t>
+  </si>
+  <si>
+    <t>141.</t>
+  </si>
+  <si>
+    <t>142.</t>
+  </si>
+  <si>
+    <t>143.</t>
+  </si>
+  <si>
+    <t>144.</t>
+  </si>
+  <si>
+    <t>145.</t>
+  </si>
+  <si>
+    <t>146.</t>
+  </si>
+  <si>
+    <t>147.</t>
+  </si>
+  <si>
+    <t>148.</t>
+  </si>
+  <si>
+    <t>149.</t>
+  </si>
+  <si>
+    <t>150.</t>
+  </si>
+  <si>
+    <t>151.</t>
+  </si>
+  <si>
+    <t>152.</t>
+  </si>
+  <si>
+    <t>153.</t>
+  </si>
+  <si>
+    <t>154.</t>
+  </si>
+  <si>
+    <t>155.</t>
+  </si>
+  <si>
+    <t>156.</t>
+  </si>
+  <si>
+    <t>157.</t>
+  </si>
+  <si>
+    <t>158.</t>
+  </si>
+  <si>
+    <t>159.</t>
+  </si>
+  <si>
+    <t>160.</t>
+  </si>
+  <si>
+    <t>161.</t>
+  </si>
+  <si>
+    <t>162.</t>
+  </si>
+  <si>
+    <t>163.</t>
+  </si>
+  <si>
+    <t>164.</t>
+  </si>
+  <si>
+    <t>165.</t>
+  </si>
+  <si>
+    <t>166.</t>
+  </si>
+  <si>
+    <t>167.</t>
+  </si>
+  <si>
+    <t>168.</t>
+  </si>
+  <si>
+    <t>169.</t>
+  </si>
+  <si>
+    <t>170.</t>
+  </si>
+  <si>
+    <t>171.</t>
+  </si>
+  <si>
+    <t>172.</t>
+  </si>
+  <si>
+    <t>173.</t>
+  </si>
+  <si>
+    <t>174.</t>
+  </si>
+  <si>
+    <t>175.</t>
+  </si>
+  <si>
+    <t>176.</t>
+  </si>
+  <si>
+    <t>177.</t>
+  </si>
+  <si>
+    <t>178.</t>
+  </si>
+  <si>
+    <t>179.</t>
+  </si>
+  <si>
+    <t>180.</t>
+  </si>
+  <si>
+    <t>181.</t>
+  </si>
+  <si>
+    <t>182.</t>
+  </si>
+  <si>
+    <t>183.</t>
+  </si>
+  <si>
+    <t>184.</t>
+  </si>
+  <si>
+    <t>185.</t>
+  </si>
+  <si>
+    <t>186.</t>
+  </si>
+  <si>
+    <t>187.</t>
+  </si>
+  <si>
+    <t>188.</t>
+  </si>
+  <si>
+    <t>189.</t>
+  </si>
+  <si>
+    <t>190.</t>
+  </si>
+  <si>
+    <t>191.</t>
+  </si>
+  <si>
+    <t>192.</t>
+  </si>
+  <si>
+    <t>193.</t>
+  </si>
+  <si>
+    <t>194.</t>
+  </si>
+  <si>
+    <t>195.</t>
+  </si>
+  <si>
+    <t>196.</t>
+  </si>
+  <si>
+    <t>197.</t>
+  </si>
+  <si>
+    <t>198.</t>
+  </si>
+  <si>
+    <t>199.</t>
+  </si>
+  <si>
+    <t>200.</t>
+  </si>
+  <si>
+    <t>201.</t>
+  </si>
+  <si>
+    <t>50 + (1 / 2) + (0 * 2)</t>
+  </si>
+  <si>
+    <t>50 + (0 / 2) + (0 * 2)</t>
+  </si>
+  <si>
+    <t>50 + (G1 / 2) + (10 * 2)</t>
+  </si>
+  <si>
+    <t>Alapképlet</t>
+  </si>
+  <si>
+    <t>p_usrpri = 50 + (p_cpu / 2) + (p_nice * 2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +814,30 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -192,7 +871,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -409,18 +1088,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,71 +1214,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál 2" xfId="1" xr:uid="{ACEDA1D7-977D-41BD-8856-A9171B195F58}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -828,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB792A1-D152-41F5-B170-811321DD7EB3}">
   <dimension ref="A1:BE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -842,615 +1625,512 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="T1" s="25" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="T1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="26"/>
-      <c r="BA1" s="26"/>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="26"/>
-      <c r="BD1" s="26"/>
-      <c r="BE1" s="27"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="25"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="41">
+      <c r="N2" s="24"/>
+      <c r="O2" s="19">
         <f>36/37.5*100</f>
         <v>96</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="17"/>
-      <c r="BC2" s="17"/>
-      <c r="BD2" s="17"/>
-      <c r="BE2" s="29"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="13"/>
+      <c r="BE2" s="14"/>
     </row>
     <row r="3" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>9</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="4">
         <v>8</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="4">
         <v>12</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="4">
         <v>24</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="4">
         <v>25</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="4">
         <v>16</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="4">
         <v>0</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="42">
+      <c r="N3" s="27"/>
+      <c r="O3" s="20">
         <f>(25+27+29+25)/4</f>
         <v>26.5</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="21"/>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-      <c r="AZ3" s="17"/>
-      <c r="BA3" s="17"/>
-      <c r="BB3" s="17"/>
-      <c r="BC3" s="17"/>
-      <c r="BD3" s="17"/>
-      <c r="BE3" s="29"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="9"/>
+      <c r="BE3" s="14"/>
     </row>
     <row r="4" spans="1:57" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>9</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="5">
         <v>4</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="5">
         <v>8</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="5">
         <v>16</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="5">
         <v>20</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="5">
         <v>29</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="5">
         <v>30</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="5">
         <v>18</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="5">
         <v>1</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="42">
+      <c r="N4" s="27"/>
+      <c r="O4" s="20">
         <f>(16+18+20+16)/4</f>
         <v>17.5</v>
       </c>
-      <c r="T4" s="28"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="22"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="24"/>
-      <c r="AX4" s="21"/>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="17"/>
-      <c r="BA4" s="17"/>
-      <c r="BB4" s="17"/>
-      <c r="BC4" s="17"/>
-      <c r="BD4" s="17"/>
-      <c r="BE4" s="29"/>
+      <c r="T4" s="13"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="12"/>
+      <c r="BE4" s="14"/>
     </row>
     <row r="5" spans="1:57" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>9</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="6">
         <v>12</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="6">
         <v>16</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="6">
         <v>25</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="6">
         <v>29</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="6">
         <v>34</v>
       </c>
-      <c r="I5" s="11">
-        <v>35</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="I5" s="6">
+        <v>35</v>
+      </c>
+      <c r="J5" s="6">
         <v>20</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="6">
         <v>6</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="43">
+      <c r="N5" s="29"/>
+      <c r="O5" s="21">
         <f>(0+1+6+9)/4</f>
         <v>4</v>
       </c>
-      <c r="T5" s="28"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="20"/>
-      <c r="AU5" s="20"/>
-      <c r="AV5" s="20"/>
-      <c r="AW5" s="23"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="19"/>
-      <c r="BC5" s="17"/>
-      <c r="BD5" s="21"/>
-      <c r="BE5" s="29"/>
+      <c r="T5" s="13"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="10"/>
+      <c r="BE5" s="14"/>
     </row>
     <row r="6" spans="1:57" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>11</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>9</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="7">
         <v>20</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <v>24</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="7">
         <v>30</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="7">
         <v>34</v>
       </c>
-      <c r="H6" s="12">
-        <v>35</v>
-      </c>
-      <c r="I6" s="12">
+      <c r="H6" s="7">
+        <v>35</v>
+      </c>
+      <c r="I6" s="7">
         <v>36</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="7">
         <v>16</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="7">
         <v>9</v>
       </c>
-      <c r="T6" s="28"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="16"/>
-      <c r="BB6" s="13"/>
-      <c r="BC6" s="32"/>
-      <c r="BD6" s="17"/>
-      <c r="BE6" s="29"/>
+      <c r="T6" s="13"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="22"/>
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="15"/>
+      <c r="BE6" s="14"/>
     </row>
     <row r="7" spans="1:57" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="T7" s="28"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="17"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="17"/>
-      <c r="BE7" s="29"/>
+      <c r="T7" s="13"/>
+      <c r="BE7" s="14"/>
     </row>
     <row r="8" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="T8" s="33">
+      <c r="T8" s="16">
         <v>1</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="17">
         <v>2</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="17">
         <v>3</v>
       </c>
-      <c r="W8" s="34">
+      <c r="W8" s="17">
         <v>4</v>
       </c>
-      <c r="X8" s="34">
+      <c r="X8" s="17">
         <v>5</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="Y8" s="17">
         <v>6</v>
       </c>
-      <c r="Z8" s="34">
+      <c r="Z8" s="17">
         <v>7</v>
       </c>
-      <c r="AA8" s="34">
+      <c r="AA8" s="17">
         <v>8</v>
       </c>
-      <c r="AB8" s="34">
+      <c r="AB8" s="17">
         <v>9</v>
       </c>
-      <c r="AC8" s="34">
+      <c r="AC8" s="17">
         <v>10</v>
       </c>
-      <c r="AD8" s="34">
+      <c r="AD8" s="17">
         <v>11</v>
       </c>
-      <c r="AE8" s="34">
+      <c r="AE8" s="17">
         <v>12</v>
       </c>
-      <c r="AF8" s="34">
+      <c r="AF8" s="17">
         <v>13</v>
       </c>
-      <c r="AG8" s="34">
+      <c r="AG8" s="17">
         <v>14</v>
       </c>
-      <c r="AH8" s="34">
+      <c r="AH8" s="17">
         <v>15</v>
       </c>
-      <c r="AI8" s="34">
+      <c r="AI8" s="17">
         <v>16</v>
       </c>
-      <c r="AJ8" s="34">
+      <c r="AJ8" s="17">
         <v>17</v>
       </c>
-      <c r="AK8" s="34">
+      <c r="AK8" s="17">
         <v>18</v>
       </c>
-      <c r="AL8" s="34">
+      <c r="AL8" s="17">
         <v>19</v>
       </c>
-      <c r="AM8" s="34">
+      <c r="AM8" s="17">
         <v>20</v>
       </c>
-      <c r="AN8" s="34">
+      <c r="AN8" s="17">
         <v>21</v>
       </c>
-      <c r="AO8" s="34">
+      <c r="AO8" s="17">
         <v>22</v>
       </c>
-      <c r="AP8" s="34">
+      <c r="AP8" s="17">
         <v>23</v>
       </c>
-      <c r="AQ8" s="34">
+      <c r="AQ8" s="17">
         <v>24</v>
       </c>
-      <c r="AR8" s="34">
+      <c r="AR8" s="17">
         <v>25</v>
       </c>
-      <c r="AS8" s="34">
+      <c r="AS8" s="17">
         <v>26</v>
       </c>
-      <c r="AT8" s="34">
+      <c r="AT8" s="17">
         <v>27</v>
       </c>
-      <c r="AU8" s="34">
+      <c r="AU8" s="17">
         <v>28</v>
       </c>
-      <c r="AV8" s="34">
+      <c r="AV8" s="17">
         <v>29</v>
       </c>
-      <c r="AW8" s="34">
+      <c r="AW8" s="17">
         <v>30</v>
       </c>
-      <c r="AX8" s="34">
+      <c r="AX8" s="17">
         <v>31</v>
       </c>
-      <c r="AY8" s="34">
+      <c r="AY8" s="17">
         <v>32</v>
       </c>
-      <c r="AZ8" s="34">
+      <c r="AZ8" s="17">
         <v>33</v>
       </c>
-      <c r="BA8" s="34">
+      <c r="BA8" s="17">
         <v>34</v>
       </c>
-      <c r="BB8" s="34">
-        <v>35</v>
-      </c>
-      <c r="BC8" s="34">
+      <c r="BB8" s="17">
+        <v>35</v>
+      </c>
+      <c r="BC8" s="17">
         <v>36</v>
       </c>
-      <c r="BD8" s="34"/>
-      <c r="BE8" s="35"/>
+      <c r="BD8" s="17"/>
+      <c r="BE8" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AJ4:AM4"/>
     <mergeCell ref="AN6:AQ6"/>
     <mergeCell ref="AX6:BA6"/>
     <mergeCell ref="T1:BE1"/>
@@ -1460,14 +2140,6605 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="P2:S2"/>
     <mergeCell ref="P3:S3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="AJ4:AM4"/>
     <mergeCell ref="AF5:AI5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C41ACD2-2D49-4A4B-8D11-AA09A501A410}">
+  <dimension ref="A1:O205"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="22.5546875" customWidth="1"/>
+    <col min="14" max="14" width="18.5546875" customWidth="1"/>
+    <col min="15" max="15" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="38"/>
+      <c r="B1" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="40"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="38">
+        <f t="shared" ref="B3" si="0">50 + (1 / 2) + (0 * 2)</f>
+        <v>50.5</v>
+      </c>
+      <c r="C3" s="41">
+        <v>200</v>
+      </c>
+      <c r="D3" s="38">
+        <f t="shared" ref="D3" si="1">50 + (0 / 2) + (0 * 2)</f>
+        <v>50</v>
+      </c>
+      <c r="E3" s="41">
+        <v>200</v>
+      </c>
+      <c r="F3" s="38">
+        <f t="shared" ref="F3" si="2">50 + (G3 / 2) + (10 * 2)</f>
+        <v>170</v>
+      </c>
+      <c r="G3" s="41">
+        <v>200</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="38">
+        <f>50 + (C4 / 2) + (0 * 2)</f>
+        <v>50</v>
+      </c>
+      <c r="C4" s="38">
+        <v>0</v>
+      </c>
+      <c r="D4" s="38">
+        <v>50</v>
+      </c>
+      <c r="E4" s="38">
+        <v>0</v>
+      </c>
+      <c r="F4" s="38">
+        <v>50</v>
+      </c>
+      <c r="G4" s="38">
+        <v>0</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="38">
+        <f t="shared" ref="B5:B68" si="3">50 + (1 / 2) + (0 * 2)</f>
+        <v>50.5</v>
+      </c>
+      <c r="C5" s="38">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38">
+        <f t="shared" ref="D5:D68" si="4">50 + (0 / 2) + (0 * 2)</f>
+        <v>50</v>
+      </c>
+      <c r="E5" s="38">
+        <v>0</v>
+      </c>
+      <c r="F5" s="38">
+        <f t="shared" ref="F5:F68" si="5">50 + (G5 / 2) + (10 * 2)</f>
+        <v>70.5</v>
+      </c>
+      <c r="G5" s="38">
+        <v>1</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="N5" s="47"/>
+      <c r="O5" s="53"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C6" s="38">
+        <v>2</v>
+      </c>
+      <c r="D6" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E6" s="38">
+        <v>2</v>
+      </c>
+      <c r="F6" s="38">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="G6" s="38">
+        <v>2</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="N6" s="51"/>
+      <c r="O6" s="52"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C7" s="38">
+        <v>3</v>
+      </c>
+      <c r="D7" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E7" s="38">
+        <v>3</v>
+      </c>
+      <c r="F7" s="38">
+        <f t="shared" si="5"/>
+        <v>71.5</v>
+      </c>
+      <c r="G7" s="38">
+        <v>3</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C8" s="38">
+        <v>4</v>
+      </c>
+      <c r="D8" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E8" s="38">
+        <v>4</v>
+      </c>
+      <c r="F8" s="38">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="G8" s="38">
+        <v>4</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C9" s="38">
+        <v>5</v>
+      </c>
+      <c r="D9" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E9" s="38">
+        <v>5</v>
+      </c>
+      <c r="F9" s="38">
+        <f t="shared" si="5"/>
+        <v>72.5</v>
+      </c>
+      <c r="G9" s="38">
+        <v>5</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C10" s="38">
+        <v>6</v>
+      </c>
+      <c r="D10" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E10" s="38">
+        <v>6</v>
+      </c>
+      <c r="F10" s="38">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="G10" s="38">
+        <v>6</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C11" s="38">
+        <v>7</v>
+      </c>
+      <c r="D11" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E11" s="38">
+        <v>7</v>
+      </c>
+      <c r="F11" s="38">
+        <f t="shared" si="5"/>
+        <v>73.5</v>
+      </c>
+      <c r="G11" s="38">
+        <v>7</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C12" s="38">
+        <v>8</v>
+      </c>
+      <c r="D12" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E12" s="38">
+        <v>8</v>
+      </c>
+      <c r="F12" s="38">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="G12" s="38">
+        <v>8</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C13" s="38">
+        <v>9</v>
+      </c>
+      <c r="D13" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E13" s="38">
+        <v>9</v>
+      </c>
+      <c r="F13" s="38">
+        <f t="shared" si="5"/>
+        <v>74.5</v>
+      </c>
+      <c r="G13" s="38">
+        <v>9</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C14" s="38">
+        <v>10</v>
+      </c>
+      <c r="D14" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E14" s="38">
+        <v>10</v>
+      </c>
+      <c r="F14" s="38">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="G14" s="38">
+        <v>10</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C15" s="38">
+        <v>11</v>
+      </c>
+      <c r="D15" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E15" s="38">
+        <v>11</v>
+      </c>
+      <c r="F15" s="38">
+        <f t="shared" si="5"/>
+        <v>75.5</v>
+      </c>
+      <c r="G15" s="38">
+        <v>11</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C16" s="38">
+        <v>12</v>
+      </c>
+      <c r="D16" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E16" s="38">
+        <v>12</v>
+      </c>
+      <c r="F16" s="38">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="G16" s="38">
+        <v>12</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C17" s="38">
+        <v>13</v>
+      </c>
+      <c r="D17" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="38">
+        <v>13</v>
+      </c>
+      <c r="F17" s="38">
+        <f t="shared" si="5"/>
+        <v>76.5</v>
+      </c>
+      <c r="G17" s="38">
+        <v>13</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C18" s="38">
+        <v>14</v>
+      </c>
+      <c r="D18" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E18" s="38">
+        <v>14</v>
+      </c>
+      <c r="F18" s="38">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="G18" s="38">
+        <v>14</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C19" s="41">
+        <v>15</v>
+      </c>
+      <c r="D19" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="41">
+        <v>15</v>
+      </c>
+      <c r="F19" s="38">
+        <f t="shared" si="5"/>
+        <v>77.5</v>
+      </c>
+      <c r="G19" s="41">
+        <v>15</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C20" s="41">
+        <v>16</v>
+      </c>
+      <c r="D20" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E20" s="41">
+        <v>16</v>
+      </c>
+      <c r="F20" s="38">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="G20" s="41">
+        <v>16</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C21" s="41">
+        <v>17</v>
+      </c>
+      <c r="D21" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="41">
+        <v>17</v>
+      </c>
+      <c r="F21" s="38">
+        <f t="shared" si="5"/>
+        <v>78.5</v>
+      </c>
+      <c r="G21" s="41">
+        <v>17</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C22" s="41">
+        <v>18</v>
+      </c>
+      <c r="D22" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E22" s="41">
+        <v>18</v>
+      </c>
+      <c r="F22" s="38">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="G22" s="41">
+        <v>18</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C23" s="41">
+        <v>19</v>
+      </c>
+      <c r="D23" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E23" s="41">
+        <v>19</v>
+      </c>
+      <c r="F23" s="38">
+        <f t="shared" si="5"/>
+        <v>79.5</v>
+      </c>
+      <c r="G23" s="41">
+        <v>19</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C24" s="41">
+        <v>20</v>
+      </c>
+      <c r="D24" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E24" s="41">
+        <v>20</v>
+      </c>
+      <c r="F24" s="38">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="G24" s="41">
+        <v>20</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C25" s="41">
+        <v>21</v>
+      </c>
+      <c r="D25" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E25" s="41">
+        <v>21</v>
+      </c>
+      <c r="F25" s="38">
+        <f t="shared" si="5"/>
+        <v>80.5</v>
+      </c>
+      <c r="G25" s="41">
+        <v>21</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C26" s="41">
+        <v>22</v>
+      </c>
+      <c r="D26" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E26" s="41">
+        <v>22</v>
+      </c>
+      <c r="F26" s="38">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="G26" s="41">
+        <v>22</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C27" s="41">
+        <v>23</v>
+      </c>
+      <c r="D27" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E27" s="41">
+        <v>23</v>
+      </c>
+      <c r="F27" s="38">
+        <f t="shared" si="5"/>
+        <v>81.5</v>
+      </c>
+      <c r="G27" s="41">
+        <v>23</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C28" s="41">
+        <v>24</v>
+      </c>
+      <c r="D28" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E28" s="41">
+        <v>24</v>
+      </c>
+      <c r="F28" s="38">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="G28" s="41">
+        <v>24</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C29" s="41">
+        <v>25</v>
+      </c>
+      <c r="D29" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E29" s="41">
+        <v>25</v>
+      </c>
+      <c r="F29" s="38">
+        <f t="shared" si="5"/>
+        <v>82.5</v>
+      </c>
+      <c r="G29" s="41">
+        <v>25</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C30" s="41">
+        <v>26</v>
+      </c>
+      <c r="D30" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E30" s="41">
+        <v>26</v>
+      </c>
+      <c r="F30" s="38">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="G30" s="41">
+        <v>26</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C31" s="41">
+        <v>27</v>
+      </c>
+      <c r="D31" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E31" s="41">
+        <v>27</v>
+      </c>
+      <c r="F31" s="38">
+        <f t="shared" si="5"/>
+        <v>83.5</v>
+      </c>
+      <c r="G31" s="41">
+        <v>27</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C32" s="41">
+        <v>28</v>
+      </c>
+      <c r="D32" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E32" s="41">
+        <v>28</v>
+      </c>
+      <c r="F32" s="38">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="G32" s="41">
+        <v>28</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C33" s="41">
+        <v>29</v>
+      </c>
+      <c r="D33" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E33" s="41">
+        <v>29</v>
+      </c>
+      <c r="F33" s="38">
+        <f t="shared" si="5"/>
+        <v>84.5</v>
+      </c>
+      <c r="G33" s="41">
+        <v>29</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C34" s="41">
+        <v>30</v>
+      </c>
+      <c r="D34" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E34" s="41">
+        <v>30</v>
+      </c>
+      <c r="F34" s="38">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="G34" s="41">
+        <v>30</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C35" s="41">
+        <v>31</v>
+      </c>
+      <c r="D35" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E35" s="41">
+        <v>31</v>
+      </c>
+      <c r="F35" s="38">
+        <f t="shared" si="5"/>
+        <v>85.5</v>
+      </c>
+      <c r="G35" s="41">
+        <v>31</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C36" s="41">
+        <v>32</v>
+      </c>
+      <c r="D36" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E36" s="41">
+        <v>32</v>
+      </c>
+      <c r="F36" s="38">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="G36" s="41">
+        <v>32</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C37" s="41">
+        <v>33</v>
+      </c>
+      <c r="D37" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E37" s="41">
+        <v>33</v>
+      </c>
+      <c r="F37" s="38">
+        <f t="shared" si="5"/>
+        <v>86.5</v>
+      </c>
+      <c r="G37" s="41">
+        <v>33</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C38" s="41">
+        <v>34</v>
+      </c>
+      <c r="D38" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E38" s="41">
+        <v>34</v>
+      </c>
+      <c r="F38" s="38">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="G38" s="41">
+        <v>34</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C39" s="41">
+        <v>35</v>
+      </c>
+      <c r="D39" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E39" s="41">
+        <v>35</v>
+      </c>
+      <c r="F39" s="38">
+        <f t="shared" si="5"/>
+        <v>87.5</v>
+      </c>
+      <c r="G39" s="41">
+        <v>35</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C40" s="41">
+        <v>36</v>
+      </c>
+      <c r="D40" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E40" s="41">
+        <v>36</v>
+      </c>
+      <c r="F40" s="38">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="G40" s="41">
+        <v>36</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C41" s="41">
+        <v>37</v>
+      </c>
+      <c r="D41" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E41" s="41">
+        <v>37</v>
+      </c>
+      <c r="F41" s="38">
+        <f t="shared" si="5"/>
+        <v>88.5</v>
+      </c>
+      <c r="G41" s="41">
+        <v>37</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C42" s="41">
+        <v>38</v>
+      </c>
+      <c r="D42" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E42" s="41">
+        <v>38</v>
+      </c>
+      <c r="F42" s="38">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="G42" s="41">
+        <v>38</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C43" s="41">
+        <v>39</v>
+      </c>
+      <c r="D43" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E43" s="41">
+        <v>39</v>
+      </c>
+      <c r="F43" s="38">
+        <f t="shared" si="5"/>
+        <v>89.5</v>
+      </c>
+      <c r="G43" s="41">
+        <v>39</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C44" s="41">
+        <v>40</v>
+      </c>
+      <c r="D44" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E44" s="41">
+        <v>40</v>
+      </c>
+      <c r="F44" s="38">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="G44" s="41">
+        <v>40</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C45" s="41">
+        <v>41</v>
+      </c>
+      <c r="D45" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E45" s="41">
+        <v>41</v>
+      </c>
+      <c r="F45" s="38">
+        <f t="shared" si="5"/>
+        <v>90.5</v>
+      </c>
+      <c r="G45" s="41">
+        <v>41</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C46" s="41">
+        <v>42</v>
+      </c>
+      <c r="D46" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E46" s="41">
+        <v>42</v>
+      </c>
+      <c r="F46" s="38">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="G46" s="41">
+        <v>42</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C47" s="41">
+        <v>43</v>
+      </c>
+      <c r="D47" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E47" s="41">
+        <v>43</v>
+      </c>
+      <c r="F47" s="38">
+        <f t="shared" si="5"/>
+        <v>91.5</v>
+      </c>
+      <c r="G47" s="41">
+        <v>43</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C48" s="41">
+        <v>44</v>
+      </c>
+      <c r="D48" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E48" s="41">
+        <v>44</v>
+      </c>
+      <c r="F48" s="38">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="G48" s="41">
+        <v>44</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C49" s="41">
+        <v>45</v>
+      </c>
+      <c r="D49" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E49" s="41">
+        <v>45</v>
+      </c>
+      <c r="F49" s="38">
+        <f t="shared" si="5"/>
+        <v>92.5</v>
+      </c>
+      <c r="G49" s="41">
+        <v>45</v>
+      </c>
+      <c r="H49" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C50" s="41">
+        <v>46</v>
+      </c>
+      <c r="D50" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E50" s="41">
+        <v>46</v>
+      </c>
+      <c r="F50" s="38">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="G50" s="41">
+        <v>46</v>
+      </c>
+      <c r="H50" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C51" s="41">
+        <v>47</v>
+      </c>
+      <c r="D51" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E51" s="41">
+        <v>47</v>
+      </c>
+      <c r="F51" s="38">
+        <f t="shared" si="5"/>
+        <v>93.5</v>
+      </c>
+      <c r="G51" s="41">
+        <v>47</v>
+      </c>
+      <c r="H51" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C52" s="41">
+        <v>48</v>
+      </c>
+      <c r="D52" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E52" s="41">
+        <v>48</v>
+      </c>
+      <c r="F52" s="38">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="G52" s="41">
+        <v>48</v>
+      </c>
+      <c r="H52" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C53" s="41">
+        <v>49</v>
+      </c>
+      <c r="D53" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E53" s="41">
+        <v>49</v>
+      </c>
+      <c r="F53" s="38">
+        <f t="shared" si="5"/>
+        <v>94.5</v>
+      </c>
+      <c r="G53" s="41">
+        <v>49</v>
+      </c>
+      <c r="H53" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C54" s="41">
+        <v>50</v>
+      </c>
+      <c r="D54" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E54" s="41">
+        <v>50</v>
+      </c>
+      <c r="F54" s="38">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="G54" s="41">
+        <v>50</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C55" s="41">
+        <v>51</v>
+      </c>
+      <c r="D55" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E55" s="41">
+        <v>51</v>
+      </c>
+      <c r="F55" s="38">
+        <f t="shared" si="5"/>
+        <v>95.5</v>
+      </c>
+      <c r="G55" s="41">
+        <v>51</v>
+      </c>
+      <c r="H55" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C56" s="41">
+        <v>52</v>
+      </c>
+      <c r="D56" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E56" s="41">
+        <v>52</v>
+      </c>
+      <c r="F56" s="38">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="G56" s="41">
+        <v>52</v>
+      </c>
+      <c r="H56" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C57" s="41">
+        <v>53</v>
+      </c>
+      <c r="D57" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E57" s="41">
+        <v>53</v>
+      </c>
+      <c r="F57" s="38">
+        <f t="shared" si="5"/>
+        <v>96.5</v>
+      </c>
+      <c r="G57" s="41">
+        <v>53</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C58" s="41">
+        <v>54</v>
+      </c>
+      <c r="D58" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E58" s="41">
+        <v>54</v>
+      </c>
+      <c r="F58" s="38">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="G58" s="41">
+        <v>54</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C59" s="41">
+        <v>55</v>
+      </c>
+      <c r="D59" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E59" s="41">
+        <v>55</v>
+      </c>
+      <c r="F59" s="38">
+        <f t="shared" si="5"/>
+        <v>97.5</v>
+      </c>
+      <c r="G59" s="41">
+        <v>55</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C60" s="41">
+        <v>56</v>
+      </c>
+      <c r="D60" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E60" s="41">
+        <v>56</v>
+      </c>
+      <c r="F60" s="38">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="G60" s="41">
+        <v>56</v>
+      </c>
+      <c r="H60" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C61" s="41">
+        <v>57</v>
+      </c>
+      <c r="D61" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E61" s="41">
+        <v>57</v>
+      </c>
+      <c r="F61" s="38">
+        <f t="shared" si="5"/>
+        <v>98.5</v>
+      </c>
+      <c r="G61" s="41">
+        <v>57</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I61" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C62" s="41">
+        <v>58</v>
+      </c>
+      <c r="D62" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E62" s="41">
+        <v>58</v>
+      </c>
+      <c r="F62" s="38">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="G62" s="41">
+        <v>58</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C63" s="41">
+        <v>59</v>
+      </c>
+      <c r="D63" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E63" s="41">
+        <v>59</v>
+      </c>
+      <c r="F63" s="38">
+        <f t="shared" si="5"/>
+        <v>99.5</v>
+      </c>
+      <c r="G63" s="41">
+        <v>59</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C64" s="41">
+        <v>60</v>
+      </c>
+      <c r="D64" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E64" s="41">
+        <v>60</v>
+      </c>
+      <c r="F64" s="38">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="G64" s="41">
+        <v>60</v>
+      </c>
+      <c r="H64" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C65" s="41">
+        <v>61</v>
+      </c>
+      <c r="D65" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E65" s="41">
+        <v>61</v>
+      </c>
+      <c r="F65" s="38">
+        <f t="shared" si="5"/>
+        <v>100.5</v>
+      </c>
+      <c r="G65" s="41">
+        <v>61</v>
+      </c>
+      <c r="H65" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C66" s="41">
+        <v>62</v>
+      </c>
+      <c r="D66" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E66" s="41">
+        <v>62</v>
+      </c>
+      <c r="F66" s="38">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="G66" s="41">
+        <v>62</v>
+      </c>
+      <c r="H66" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C67" s="41">
+        <v>63</v>
+      </c>
+      <c r="D67" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E67" s="41">
+        <v>63</v>
+      </c>
+      <c r="F67" s="38">
+        <f t="shared" si="5"/>
+        <v>101.5</v>
+      </c>
+      <c r="G67" s="41">
+        <v>63</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I67" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="38">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="C68" s="41">
+        <v>64</v>
+      </c>
+      <c r="D68" s="38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E68" s="41">
+        <v>64</v>
+      </c>
+      <c r="F68" s="38">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="G68" s="41">
+        <v>64</v>
+      </c>
+      <c r="H68" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I68" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="38">
+        <f t="shared" ref="B69:B132" si="6">50 + (1 / 2) + (0 * 2)</f>
+        <v>50.5</v>
+      </c>
+      <c r="C69" s="41">
+        <v>65</v>
+      </c>
+      <c r="D69" s="38">
+        <f t="shared" ref="D69:D132" si="7">50 + (0 / 2) + (0 * 2)</f>
+        <v>50</v>
+      </c>
+      <c r="E69" s="41">
+        <v>65</v>
+      </c>
+      <c r="F69" s="38">
+        <f t="shared" ref="F69:F132" si="8">50 + (G69 / 2) + (10 * 2)</f>
+        <v>102.5</v>
+      </c>
+      <c r="G69" s="41">
+        <v>65</v>
+      </c>
+      <c r="H69" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C70" s="41">
+        <v>66</v>
+      </c>
+      <c r="D70" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E70" s="41">
+        <v>66</v>
+      </c>
+      <c r="F70" s="38">
+        <f t="shared" si="8"/>
+        <v>103</v>
+      </c>
+      <c r="G70" s="41">
+        <v>66</v>
+      </c>
+      <c r="H70" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C71" s="41">
+        <v>67</v>
+      </c>
+      <c r="D71" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E71" s="41">
+        <v>67</v>
+      </c>
+      <c r="F71" s="38">
+        <f t="shared" si="8"/>
+        <v>103.5</v>
+      </c>
+      <c r="G71" s="41">
+        <v>67</v>
+      </c>
+      <c r="H71" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C72" s="41">
+        <v>68</v>
+      </c>
+      <c r="D72" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E72" s="41">
+        <v>68</v>
+      </c>
+      <c r="F72" s="38">
+        <f t="shared" si="8"/>
+        <v>104</v>
+      </c>
+      <c r="G72" s="41">
+        <v>68</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C73" s="41">
+        <v>69</v>
+      </c>
+      <c r="D73" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E73" s="41">
+        <v>69</v>
+      </c>
+      <c r="F73" s="38">
+        <f t="shared" si="8"/>
+        <v>104.5</v>
+      </c>
+      <c r="G73" s="41">
+        <v>69</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C74" s="41">
+        <v>70</v>
+      </c>
+      <c r="D74" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E74" s="41">
+        <v>70</v>
+      </c>
+      <c r="F74" s="38">
+        <f t="shared" si="8"/>
+        <v>105</v>
+      </c>
+      <c r="G74" s="41">
+        <v>70</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I74" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C75" s="41">
+        <v>71</v>
+      </c>
+      <c r="D75" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E75" s="41">
+        <v>71</v>
+      </c>
+      <c r="F75" s="38">
+        <f t="shared" si="8"/>
+        <v>105.5</v>
+      </c>
+      <c r="G75" s="41">
+        <v>71</v>
+      </c>
+      <c r="H75" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C76" s="41">
+        <v>72</v>
+      </c>
+      <c r="D76" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E76" s="41">
+        <v>72</v>
+      </c>
+      <c r="F76" s="38">
+        <f t="shared" si="8"/>
+        <v>106</v>
+      </c>
+      <c r="G76" s="41">
+        <v>72</v>
+      </c>
+      <c r="H76" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I76" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C77" s="41">
+        <v>73</v>
+      </c>
+      <c r="D77" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E77" s="41">
+        <v>73</v>
+      </c>
+      <c r="F77" s="38">
+        <f t="shared" si="8"/>
+        <v>106.5</v>
+      </c>
+      <c r="G77" s="41">
+        <v>73</v>
+      </c>
+      <c r="H77" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I77" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C78" s="41">
+        <v>74</v>
+      </c>
+      <c r="D78" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E78" s="41">
+        <v>74</v>
+      </c>
+      <c r="F78" s="38">
+        <f t="shared" si="8"/>
+        <v>107</v>
+      </c>
+      <c r="G78" s="41">
+        <v>74</v>
+      </c>
+      <c r="H78" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I78" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C79" s="41">
+        <v>75</v>
+      </c>
+      <c r="D79" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E79" s="41">
+        <v>75</v>
+      </c>
+      <c r="F79" s="38">
+        <f t="shared" si="8"/>
+        <v>107.5</v>
+      </c>
+      <c r="G79" s="41">
+        <v>75</v>
+      </c>
+      <c r="H79" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I79" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C80" s="41">
+        <v>76</v>
+      </c>
+      <c r="D80" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E80" s="41">
+        <v>76</v>
+      </c>
+      <c r="F80" s="38">
+        <f t="shared" si="8"/>
+        <v>108</v>
+      </c>
+      <c r="G80" s="41">
+        <v>76</v>
+      </c>
+      <c r="H80" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I80" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C81" s="41">
+        <v>77</v>
+      </c>
+      <c r="D81" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E81" s="41">
+        <v>77</v>
+      </c>
+      <c r="F81" s="38">
+        <f t="shared" si="8"/>
+        <v>108.5</v>
+      </c>
+      <c r="G81" s="41">
+        <v>77</v>
+      </c>
+      <c r="H81" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I81" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C82" s="41">
+        <v>78</v>
+      </c>
+      <c r="D82" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E82" s="41">
+        <v>78</v>
+      </c>
+      <c r="F82" s="38">
+        <f t="shared" si="8"/>
+        <v>109</v>
+      </c>
+      <c r="G82" s="41">
+        <v>78</v>
+      </c>
+      <c r="H82" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C83" s="41">
+        <v>79</v>
+      </c>
+      <c r="D83" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E83" s="41">
+        <v>79</v>
+      </c>
+      <c r="F83" s="38">
+        <f t="shared" si="8"/>
+        <v>109.5</v>
+      </c>
+      <c r="G83" s="41">
+        <v>79</v>
+      </c>
+      <c r="H83" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I83" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C84" s="41">
+        <v>80</v>
+      </c>
+      <c r="D84" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E84" s="41">
+        <v>80</v>
+      </c>
+      <c r="F84" s="38">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
+      <c r="G84" s="41">
+        <v>80</v>
+      </c>
+      <c r="H84" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C85" s="41">
+        <v>81</v>
+      </c>
+      <c r="D85" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E85" s="41">
+        <v>81</v>
+      </c>
+      <c r="F85" s="38">
+        <f t="shared" si="8"/>
+        <v>110.5</v>
+      </c>
+      <c r="G85" s="41">
+        <v>81</v>
+      </c>
+      <c r="H85" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I85" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C86" s="41">
+        <v>82</v>
+      </c>
+      <c r="D86" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E86" s="41">
+        <v>82</v>
+      </c>
+      <c r="F86" s="38">
+        <f t="shared" si="8"/>
+        <v>111</v>
+      </c>
+      <c r="G86" s="41">
+        <v>82</v>
+      </c>
+      <c r="H86" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I86" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C87" s="41">
+        <v>83</v>
+      </c>
+      <c r="D87" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E87" s="41">
+        <v>83</v>
+      </c>
+      <c r="F87" s="38">
+        <f t="shared" si="8"/>
+        <v>111.5</v>
+      </c>
+      <c r="G87" s="41">
+        <v>83</v>
+      </c>
+      <c r="H87" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I87" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C88" s="41">
+        <v>84</v>
+      </c>
+      <c r="D88" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E88" s="41">
+        <v>84</v>
+      </c>
+      <c r="F88" s="38">
+        <f t="shared" si="8"/>
+        <v>112</v>
+      </c>
+      <c r="G88" s="41">
+        <v>84</v>
+      </c>
+      <c r="H88" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I88" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C89" s="41">
+        <v>85</v>
+      </c>
+      <c r="D89" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E89" s="41">
+        <v>85</v>
+      </c>
+      <c r="F89" s="38">
+        <f t="shared" si="8"/>
+        <v>112.5</v>
+      </c>
+      <c r="G89" s="41">
+        <v>85</v>
+      </c>
+      <c r="H89" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I89" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C90" s="41">
+        <v>86</v>
+      </c>
+      <c r="D90" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E90" s="41">
+        <v>86</v>
+      </c>
+      <c r="F90" s="38">
+        <f t="shared" si="8"/>
+        <v>113</v>
+      </c>
+      <c r="G90" s="41">
+        <v>86</v>
+      </c>
+      <c r="H90" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I90" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C91" s="41">
+        <v>87</v>
+      </c>
+      <c r="D91" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E91" s="41">
+        <v>87</v>
+      </c>
+      <c r="F91" s="38">
+        <f t="shared" si="8"/>
+        <v>113.5</v>
+      </c>
+      <c r="G91" s="41">
+        <v>87</v>
+      </c>
+      <c r="H91" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I91" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C92" s="41">
+        <v>88</v>
+      </c>
+      <c r="D92" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E92" s="41">
+        <v>88</v>
+      </c>
+      <c r="F92" s="38">
+        <f t="shared" si="8"/>
+        <v>114</v>
+      </c>
+      <c r="G92" s="41">
+        <v>88</v>
+      </c>
+      <c r="H92" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C93" s="41">
+        <v>89</v>
+      </c>
+      <c r="D93" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E93" s="41">
+        <v>89</v>
+      </c>
+      <c r="F93" s="38">
+        <f t="shared" si="8"/>
+        <v>114.5</v>
+      </c>
+      <c r="G93" s="41">
+        <v>89</v>
+      </c>
+      <c r="H93" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I93" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C94" s="41">
+        <v>90</v>
+      </c>
+      <c r="D94" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E94" s="41">
+        <v>90</v>
+      </c>
+      <c r="F94" s="38">
+        <f t="shared" si="8"/>
+        <v>115</v>
+      </c>
+      <c r="G94" s="41">
+        <v>90</v>
+      </c>
+      <c r="H94" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I94" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C95" s="41">
+        <v>91</v>
+      </c>
+      <c r="D95" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E95" s="41">
+        <v>91</v>
+      </c>
+      <c r="F95" s="38">
+        <f t="shared" si="8"/>
+        <v>115.5</v>
+      </c>
+      <c r="G95" s="41">
+        <v>91</v>
+      </c>
+      <c r="H95" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I95" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C96" s="41">
+        <v>92</v>
+      </c>
+      <c r="D96" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E96" s="41">
+        <v>92</v>
+      </c>
+      <c r="F96" s="38">
+        <f t="shared" si="8"/>
+        <v>116</v>
+      </c>
+      <c r="G96" s="41">
+        <v>92</v>
+      </c>
+      <c r="H96" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I96" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C97" s="41">
+        <v>93</v>
+      </c>
+      <c r="D97" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E97" s="41">
+        <v>93</v>
+      </c>
+      <c r="F97" s="38">
+        <f t="shared" si="8"/>
+        <v>116.5</v>
+      </c>
+      <c r="G97" s="41">
+        <v>93</v>
+      </c>
+      <c r="H97" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I97" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C98" s="41">
+        <v>94</v>
+      </c>
+      <c r="D98" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E98" s="41">
+        <v>94</v>
+      </c>
+      <c r="F98" s="38">
+        <f t="shared" si="8"/>
+        <v>117</v>
+      </c>
+      <c r="G98" s="41">
+        <v>94</v>
+      </c>
+      <c r="H98" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I98" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C99" s="41">
+        <v>95</v>
+      </c>
+      <c r="D99" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E99" s="41">
+        <v>95</v>
+      </c>
+      <c r="F99" s="38">
+        <f t="shared" si="8"/>
+        <v>117.5</v>
+      </c>
+      <c r="G99" s="41">
+        <v>95</v>
+      </c>
+      <c r="H99" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I99" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C100" s="41">
+        <v>96</v>
+      </c>
+      <c r="D100" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E100" s="41">
+        <v>96</v>
+      </c>
+      <c r="F100" s="38">
+        <f t="shared" si="8"/>
+        <v>118</v>
+      </c>
+      <c r="G100" s="41">
+        <v>96</v>
+      </c>
+      <c r="H100" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I100" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C101" s="41">
+        <v>97</v>
+      </c>
+      <c r="D101" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E101" s="41">
+        <v>97</v>
+      </c>
+      <c r="F101" s="38">
+        <f t="shared" si="8"/>
+        <v>118.5</v>
+      </c>
+      <c r="G101" s="41">
+        <v>97</v>
+      </c>
+      <c r="H101" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I101" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C102" s="41">
+        <v>98</v>
+      </c>
+      <c r="D102" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E102" s="41">
+        <v>98</v>
+      </c>
+      <c r="F102" s="38">
+        <f t="shared" si="8"/>
+        <v>119</v>
+      </c>
+      <c r="G102" s="41">
+        <v>98</v>
+      </c>
+      <c r="H102" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I102" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C103" s="41">
+        <v>99</v>
+      </c>
+      <c r="D103" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E103" s="41">
+        <v>99</v>
+      </c>
+      <c r="F103" s="38">
+        <f t="shared" si="8"/>
+        <v>119.5</v>
+      </c>
+      <c r="G103" s="41">
+        <v>99</v>
+      </c>
+      <c r="H103" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I103" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B104" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C104" s="41">
+        <v>100</v>
+      </c>
+      <c r="D104" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E104" s="41">
+        <v>100</v>
+      </c>
+      <c r="F104" s="38">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="G104" s="41">
+        <v>100</v>
+      </c>
+      <c r="H104" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I104" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B105" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C105" s="41">
+        <v>101</v>
+      </c>
+      <c r="D105" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E105" s="41">
+        <v>101</v>
+      </c>
+      <c r="F105" s="38">
+        <f t="shared" si="8"/>
+        <v>120.5</v>
+      </c>
+      <c r="G105" s="41">
+        <v>101</v>
+      </c>
+      <c r="H105" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I105" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C106" s="41">
+        <v>102</v>
+      </c>
+      <c r="D106" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E106" s="41">
+        <v>102</v>
+      </c>
+      <c r="F106" s="38">
+        <f t="shared" si="8"/>
+        <v>121</v>
+      </c>
+      <c r="G106" s="41">
+        <v>102</v>
+      </c>
+      <c r="H106" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I106" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B107" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C107" s="41">
+        <v>103</v>
+      </c>
+      <c r="D107" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E107" s="41">
+        <v>103</v>
+      </c>
+      <c r="F107" s="38">
+        <f t="shared" si="8"/>
+        <v>121.5</v>
+      </c>
+      <c r="G107" s="41">
+        <v>103</v>
+      </c>
+      <c r="H107" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I107" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C108" s="41">
+        <v>104</v>
+      </c>
+      <c r="D108" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E108" s="41">
+        <v>104</v>
+      </c>
+      <c r="F108" s="38">
+        <f t="shared" si="8"/>
+        <v>122</v>
+      </c>
+      <c r="G108" s="41">
+        <v>104</v>
+      </c>
+      <c r="H108" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I108" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B109" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C109" s="41">
+        <v>105</v>
+      </c>
+      <c r="D109" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E109" s="41">
+        <v>105</v>
+      </c>
+      <c r="F109" s="38">
+        <f t="shared" si="8"/>
+        <v>122.5</v>
+      </c>
+      <c r="G109" s="41">
+        <v>105</v>
+      </c>
+      <c r="H109" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I109" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B110" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C110" s="41">
+        <v>106</v>
+      </c>
+      <c r="D110" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E110" s="41">
+        <v>106</v>
+      </c>
+      <c r="F110" s="38">
+        <f t="shared" si="8"/>
+        <v>123</v>
+      </c>
+      <c r="G110" s="41">
+        <v>106</v>
+      </c>
+      <c r="H110" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C111" s="41">
+        <v>107</v>
+      </c>
+      <c r="D111" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E111" s="41">
+        <v>107</v>
+      </c>
+      <c r="F111" s="38">
+        <f t="shared" si="8"/>
+        <v>123.5</v>
+      </c>
+      <c r="G111" s="41">
+        <v>107</v>
+      </c>
+      <c r="H111" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I111" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B112" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C112" s="41">
+        <v>108</v>
+      </c>
+      <c r="D112" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E112" s="41">
+        <v>108</v>
+      </c>
+      <c r="F112" s="38">
+        <f t="shared" si="8"/>
+        <v>124</v>
+      </c>
+      <c r="G112" s="41">
+        <v>108</v>
+      </c>
+      <c r="H112" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I112" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B113" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C113" s="41">
+        <v>109</v>
+      </c>
+      <c r="D113" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E113" s="41">
+        <v>109</v>
+      </c>
+      <c r="F113" s="38">
+        <f t="shared" si="8"/>
+        <v>124.5</v>
+      </c>
+      <c r="G113" s="41">
+        <v>109</v>
+      </c>
+      <c r="H113" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I113" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B114" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C114" s="41">
+        <v>110</v>
+      </c>
+      <c r="D114" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E114" s="41">
+        <v>110</v>
+      </c>
+      <c r="F114" s="38">
+        <f t="shared" si="8"/>
+        <v>125</v>
+      </c>
+      <c r="G114" s="41">
+        <v>110</v>
+      </c>
+      <c r="H114" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I114" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C115" s="41">
+        <v>111</v>
+      </c>
+      <c r="D115" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E115" s="41">
+        <v>111</v>
+      </c>
+      <c r="F115" s="38">
+        <f t="shared" si="8"/>
+        <v>125.5</v>
+      </c>
+      <c r="G115" s="41">
+        <v>111</v>
+      </c>
+      <c r="H115" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I115" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B116" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C116" s="41">
+        <v>112</v>
+      </c>
+      <c r="D116" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E116" s="41">
+        <v>112</v>
+      </c>
+      <c r="F116" s="38">
+        <f t="shared" si="8"/>
+        <v>126</v>
+      </c>
+      <c r="G116" s="41">
+        <v>112</v>
+      </c>
+      <c r="H116" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I116" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B117" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C117" s="41">
+        <v>113</v>
+      </c>
+      <c r="D117" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E117" s="41">
+        <v>113</v>
+      </c>
+      <c r="F117" s="38">
+        <f t="shared" si="8"/>
+        <v>126.5</v>
+      </c>
+      <c r="G117" s="41">
+        <v>113</v>
+      </c>
+      <c r="H117" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I117" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B118" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C118" s="41">
+        <v>114</v>
+      </c>
+      <c r="D118" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E118" s="41">
+        <v>114</v>
+      </c>
+      <c r="F118" s="38">
+        <f t="shared" si="8"/>
+        <v>127</v>
+      </c>
+      <c r="G118" s="41">
+        <v>114</v>
+      </c>
+      <c r="H118" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I118" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B119" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C119" s="41">
+        <v>115</v>
+      </c>
+      <c r="D119" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E119" s="41">
+        <v>115</v>
+      </c>
+      <c r="F119" s="38">
+        <f t="shared" si="8"/>
+        <v>127.5</v>
+      </c>
+      <c r="G119" s="41">
+        <v>115</v>
+      </c>
+      <c r="H119" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I119" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B120" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C120" s="41">
+        <v>116</v>
+      </c>
+      <c r="D120" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E120" s="41">
+        <v>116</v>
+      </c>
+      <c r="F120" s="38">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="G120" s="41">
+        <v>116</v>
+      </c>
+      <c r="H120" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I120" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B121" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C121" s="41">
+        <v>117</v>
+      </c>
+      <c r="D121" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E121" s="41">
+        <v>117</v>
+      </c>
+      <c r="F121" s="38">
+        <f t="shared" si="8"/>
+        <v>128.5</v>
+      </c>
+      <c r="G121" s="41">
+        <v>117</v>
+      </c>
+      <c r="H121" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I121" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B122" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C122" s="41">
+        <v>118</v>
+      </c>
+      <c r="D122" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E122" s="41">
+        <v>118</v>
+      </c>
+      <c r="F122" s="38">
+        <f t="shared" si="8"/>
+        <v>129</v>
+      </c>
+      <c r="G122" s="41">
+        <v>118</v>
+      </c>
+      <c r="H122" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I122" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B123" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C123" s="41">
+        <v>119</v>
+      </c>
+      <c r="D123" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E123" s="41">
+        <v>119</v>
+      </c>
+      <c r="F123" s="38">
+        <f t="shared" si="8"/>
+        <v>129.5</v>
+      </c>
+      <c r="G123" s="41">
+        <v>119</v>
+      </c>
+      <c r="H123" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I123" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B124" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C124" s="41">
+        <v>120</v>
+      </c>
+      <c r="D124" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E124" s="41">
+        <v>120</v>
+      </c>
+      <c r="F124" s="38">
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+      <c r="G124" s="41">
+        <v>120</v>
+      </c>
+      <c r="H124" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I124" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B125" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C125" s="41">
+        <v>121</v>
+      </c>
+      <c r="D125" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E125" s="41">
+        <v>121</v>
+      </c>
+      <c r="F125" s="38">
+        <f t="shared" si="8"/>
+        <v>130.5</v>
+      </c>
+      <c r="G125" s="41">
+        <v>121</v>
+      </c>
+      <c r="H125" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I125" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B126" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C126" s="41">
+        <v>122</v>
+      </c>
+      <c r="D126" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E126" s="41">
+        <v>122</v>
+      </c>
+      <c r="F126" s="38">
+        <f t="shared" si="8"/>
+        <v>131</v>
+      </c>
+      <c r="G126" s="41">
+        <v>122</v>
+      </c>
+      <c r="H126" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I126" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B127" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C127" s="41">
+        <v>123</v>
+      </c>
+      <c r="D127" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E127" s="41">
+        <v>123</v>
+      </c>
+      <c r="F127" s="38">
+        <f t="shared" si="8"/>
+        <v>131.5</v>
+      </c>
+      <c r="G127" s="41">
+        <v>123</v>
+      </c>
+      <c r="H127" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I127" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C128" s="41">
+        <v>124</v>
+      </c>
+      <c r="D128" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E128" s="41">
+        <v>124</v>
+      </c>
+      <c r="F128" s="38">
+        <f t="shared" si="8"/>
+        <v>132</v>
+      </c>
+      <c r="G128" s="41">
+        <v>124</v>
+      </c>
+      <c r="H128" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I128" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B129" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C129" s="41">
+        <v>125</v>
+      </c>
+      <c r="D129" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E129" s="41">
+        <v>125</v>
+      </c>
+      <c r="F129" s="38">
+        <f t="shared" si="8"/>
+        <v>132.5</v>
+      </c>
+      <c r="G129" s="41">
+        <v>125</v>
+      </c>
+      <c r="H129" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I129" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B130" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C130" s="41">
+        <v>126</v>
+      </c>
+      <c r="D130" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E130" s="41">
+        <v>126</v>
+      </c>
+      <c r="F130" s="38">
+        <f t="shared" si="8"/>
+        <v>133</v>
+      </c>
+      <c r="G130" s="41">
+        <v>126</v>
+      </c>
+      <c r="H130" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I130" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B131" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C131" s="41">
+        <v>127</v>
+      </c>
+      <c r="D131" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E131" s="41">
+        <v>127</v>
+      </c>
+      <c r="F131" s="38">
+        <f t="shared" si="8"/>
+        <v>133.5</v>
+      </c>
+      <c r="G131" s="41">
+        <v>127</v>
+      </c>
+      <c r="H131" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I131" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B132" s="38">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C132" s="41">
+        <v>128</v>
+      </c>
+      <c r="D132" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E132" s="41">
+        <v>128</v>
+      </c>
+      <c r="F132" s="38">
+        <f t="shared" si="8"/>
+        <v>134</v>
+      </c>
+      <c r="G132" s="41">
+        <v>128</v>
+      </c>
+      <c r="H132" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I132" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B133" s="38">
+        <f t="shared" ref="B133:B196" si="9">50 + (1 / 2) + (0 * 2)</f>
+        <v>50.5</v>
+      </c>
+      <c r="C133" s="41">
+        <v>129</v>
+      </c>
+      <c r="D133" s="38">
+        <f t="shared" ref="D133:D196" si="10">50 + (0 / 2) + (0 * 2)</f>
+        <v>50</v>
+      </c>
+      <c r="E133" s="41">
+        <v>129</v>
+      </c>
+      <c r="F133" s="38">
+        <f t="shared" ref="F133:F196" si="11">50 + (G133 / 2) + (10 * 2)</f>
+        <v>134.5</v>
+      </c>
+      <c r="G133" s="41">
+        <v>129</v>
+      </c>
+      <c r="H133" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I133" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B134" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C134" s="41">
+        <v>130</v>
+      </c>
+      <c r="D134" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E134" s="41">
+        <v>130</v>
+      </c>
+      <c r="F134" s="38">
+        <f t="shared" si="11"/>
+        <v>135</v>
+      </c>
+      <c r="G134" s="41">
+        <v>130</v>
+      </c>
+      <c r="H134" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I134" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B135" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C135" s="41">
+        <v>131</v>
+      </c>
+      <c r="D135" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E135" s="41">
+        <v>131</v>
+      </c>
+      <c r="F135" s="38">
+        <f t="shared" si="11"/>
+        <v>135.5</v>
+      </c>
+      <c r="G135" s="41">
+        <v>131</v>
+      </c>
+      <c r="H135" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I135" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B136" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C136" s="41">
+        <v>132</v>
+      </c>
+      <c r="D136" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E136" s="41">
+        <v>132</v>
+      </c>
+      <c r="F136" s="38">
+        <f t="shared" si="11"/>
+        <v>136</v>
+      </c>
+      <c r="G136" s="41">
+        <v>132</v>
+      </c>
+      <c r="H136" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I136" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B137" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C137" s="41">
+        <v>133</v>
+      </c>
+      <c r="D137" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E137" s="41">
+        <v>133</v>
+      </c>
+      <c r="F137" s="38">
+        <f t="shared" si="11"/>
+        <v>136.5</v>
+      </c>
+      <c r="G137" s="41">
+        <v>133</v>
+      </c>
+      <c r="H137" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I137" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B138" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C138" s="41">
+        <v>134</v>
+      </c>
+      <c r="D138" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E138" s="41">
+        <v>134</v>
+      </c>
+      <c r="F138" s="38">
+        <f t="shared" si="11"/>
+        <v>137</v>
+      </c>
+      <c r="G138" s="41">
+        <v>134</v>
+      </c>
+      <c r="H138" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I138" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="B139" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C139" s="41">
+        <v>135</v>
+      </c>
+      <c r="D139" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E139" s="41">
+        <v>135</v>
+      </c>
+      <c r="F139" s="38">
+        <f t="shared" si="11"/>
+        <v>137.5</v>
+      </c>
+      <c r="G139" s="41">
+        <v>135</v>
+      </c>
+      <c r="H139" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I139" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B140" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C140" s="41">
+        <v>136</v>
+      </c>
+      <c r="D140" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E140" s="41">
+        <v>136</v>
+      </c>
+      <c r="F140" s="38">
+        <f t="shared" si="11"/>
+        <v>138</v>
+      </c>
+      <c r="G140" s="41">
+        <v>136</v>
+      </c>
+      <c r="H140" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I140" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B141" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C141" s="41">
+        <v>137</v>
+      </c>
+      <c r="D141" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E141" s="41">
+        <v>137</v>
+      </c>
+      <c r="F141" s="38">
+        <f t="shared" si="11"/>
+        <v>138.5</v>
+      </c>
+      <c r="G141" s="41">
+        <v>137</v>
+      </c>
+      <c r="H141" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I141" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B142" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C142" s="41">
+        <v>138</v>
+      </c>
+      <c r="D142" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E142" s="41">
+        <v>138</v>
+      </c>
+      <c r="F142" s="38">
+        <f t="shared" si="11"/>
+        <v>139</v>
+      </c>
+      <c r="G142" s="41">
+        <v>138</v>
+      </c>
+      <c r="H142" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I142" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B143" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C143" s="41">
+        <v>139</v>
+      </c>
+      <c r="D143" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E143" s="41">
+        <v>139</v>
+      </c>
+      <c r="F143" s="38">
+        <f t="shared" si="11"/>
+        <v>139.5</v>
+      </c>
+      <c r="G143" s="41">
+        <v>139</v>
+      </c>
+      <c r="H143" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I143" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B144" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C144" s="41">
+        <v>140</v>
+      </c>
+      <c r="D144" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E144" s="41">
+        <v>140</v>
+      </c>
+      <c r="F144" s="38">
+        <f t="shared" si="11"/>
+        <v>140</v>
+      </c>
+      <c r="G144" s="41">
+        <v>140</v>
+      </c>
+      <c r="H144" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I144" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B145" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C145" s="41">
+        <v>141</v>
+      </c>
+      <c r="D145" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E145" s="41">
+        <v>141</v>
+      </c>
+      <c r="F145" s="38">
+        <f t="shared" si="11"/>
+        <v>140.5</v>
+      </c>
+      <c r="G145" s="41">
+        <v>141</v>
+      </c>
+      <c r="H145" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I145" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="B146" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C146" s="41">
+        <v>142</v>
+      </c>
+      <c r="D146" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E146" s="41">
+        <v>142</v>
+      </c>
+      <c r="F146" s="38">
+        <f t="shared" si="11"/>
+        <v>141</v>
+      </c>
+      <c r="G146" s="41">
+        <v>142</v>
+      </c>
+      <c r="H146" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I146" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B147" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C147" s="41">
+        <v>143</v>
+      </c>
+      <c r="D147" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E147" s="41">
+        <v>143</v>
+      </c>
+      <c r="F147" s="38">
+        <f t="shared" si="11"/>
+        <v>141.5</v>
+      </c>
+      <c r="G147" s="41">
+        <v>143</v>
+      </c>
+      <c r="H147" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I147" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B148" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C148" s="41">
+        <v>144</v>
+      </c>
+      <c r="D148" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E148" s="41">
+        <v>144</v>
+      </c>
+      <c r="F148" s="38">
+        <f t="shared" si="11"/>
+        <v>142</v>
+      </c>
+      <c r="G148" s="41">
+        <v>144</v>
+      </c>
+      <c r="H148" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I148" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B149" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C149" s="41">
+        <v>145</v>
+      </c>
+      <c r="D149" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E149" s="41">
+        <v>145</v>
+      </c>
+      <c r="F149" s="38">
+        <f t="shared" si="11"/>
+        <v>142.5</v>
+      </c>
+      <c r="G149" s="41">
+        <v>145</v>
+      </c>
+      <c r="H149" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I149" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B150" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C150" s="41">
+        <v>146</v>
+      </c>
+      <c r="D150" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E150" s="41">
+        <v>146</v>
+      </c>
+      <c r="F150" s="38">
+        <f t="shared" si="11"/>
+        <v>143</v>
+      </c>
+      <c r="G150" s="41">
+        <v>146</v>
+      </c>
+      <c r="H150" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I150" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B151" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C151" s="41">
+        <v>147</v>
+      </c>
+      <c r="D151" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E151" s="41">
+        <v>147</v>
+      </c>
+      <c r="F151" s="38">
+        <f t="shared" si="11"/>
+        <v>143.5</v>
+      </c>
+      <c r="G151" s="41">
+        <v>147</v>
+      </c>
+      <c r="H151" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I151" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B152" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C152" s="41">
+        <v>148</v>
+      </c>
+      <c r="D152" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E152" s="41">
+        <v>148</v>
+      </c>
+      <c r="F152" s="38">
+        <f t="shared" si="11"/>
+        <v>144</v>
+      </c>
+      <c r="G152" s="41">
+        <v>148</v>
+      </c>
+      <c r="H152" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I152" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B153" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C153" s="41">
+        <v>149</v>
+      </c>
+      <c r="D153" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E153" s="41">
+        <v>149</v>
+      </c>
+      <c r="F153" s="38">
+        <f t="shared" si="11"/>
+        <v>144.5</v>
+      </c>
+      <c r="G153" s="41">
+        <v>149</v>
+      </c>
+      <c r="H153" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I153" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B154" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C154" s="41">
+        <v>150</v>
+      </c>
+      <c r="D154" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E154" s="41">
+        <v>150</v>
+      </c>
+      <c r="F154" s="38">
+        <f t="shared" si="11"/>
+        <v>145</v>
+      </c>
+      <c r="G154" s="41">
+        <v>150</v>
+      </c>
+      <c r="H154" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I154" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B155" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C155" s="41">
+        <v>151</v>
+      </c>
+      <c r="D155" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E155" s="41">
+        <v>151</v>
+      </c>
+      <c r="F155" s="38">
+        <f t="shared" si="11"/>
+        <v>145.5</v>
+      </c>
+      <c r="G155" s="41">
+        <v>151</v>
+      </c>
+      <c r="H155" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I155" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B156" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C156" s="41">
+        <v>152</v>
+      </c>
+      <c r="D156" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E156" s="41">
+        <v>152</v>
+      </c>
+      <c r="F156" s="38">
+        <f t="shared" si="11"/>
+        <v>146</v>
+      </c>
+      <c r="G156" s="41">
+        <v>152</v>
+      </c>
+      <c r="H156" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I156" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B157" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C157" s="41">
+        <v>153</v>
+      </c>
+      <c r="D157" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E157" s="41">
+        <v>153</v>
+      </c>
+      <c r="F157" s="38">
+        <f t="shared" si="11"/>
+        <v>146.5</v>
+      </c>
+      <c r="G157" s="41">
+        <v>153</v>
+      </c>
+      <c r="H157" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I157" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B158" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C158" s="41">
+        <v>154</v>
+      </c>
+      <c r="D158" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E158" s="41">
+        <v>154</v>
+      </c>
+      <c r="F158" s="38">
+        <f t="shared" si="11"/>
+        <v>147</v>
+      </c>
+      <c r="G158" s="41">
+        <v>154</v>
+      </c>
+      <c r="H158" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I158" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B159" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C159" s="41">
+        <v>155</v>
+      </c>
+      <c r="D159" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E159" s="41">
+        <v>155</v>
+      </c>
+      <c r="F159" s="38">
+        <f t="shared" si="11"/>
+        <v>147.5</v>
+      </c>
+      <c r="G159" s="41">
+        <v>155</v>
+      </c>
+      <c r="H159" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I159" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B160" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C160" s="41">
+        <v>156</v>
+      </c>
+      <c r="D160" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E160" s="41">
+        <v>156</v>
+      </c>
+      <c r="F160" s="38">
+        <f t="shared" si="11"/>
+        <v>148</v>
+      </c>
+      <c r="G160" s="41">
+        <v>156</v>
+      </c>
+      <c r="H160" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I160" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B161" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C161" s="41">
+        <v>157</v>
+      </c>
+      <c r="D161" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E161" s="41">
+        <v>157</v>
+      </c>
+      <c r="F161" s="38">
+        <f t="shared" si="11"/>
+        <v>148.5</v>
+      </c>
+      <c r="G161" s="41">
+        <v>157</v>
+      </c>
+      <c r="H161" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I161" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B162" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C162" s="41">
+        <v>158</v>
+      </c>
+      <c r="D162" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E162" s="41">
+        <v>158</v>
+      </c>
+      <c r="F162" s="38">
+        <f t="shared" si="11"/>
+        <v>149</v>
+      </c>
+      <c r="G162" s="41">
+        <v>158</v>
+      </c>
+      <c r="H162" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I162" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B163" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C163" s="41">
+        <v>159</v>
+      </c>
+      <c r="D163" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E163" s="41">
+        <v>159</v>
+      </c>
+      <c r="F163" s="38">
+        <f t="shared" si="11"/>
+        <v>149.5</v>
+      </c>
+      <c r="G163" s="41">
+        <v>159</v>
+      </c>
+      <c r="H163" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I163" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B164" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C164" s="41">
+        <v>160</v>
+      </c>
+      <c r="D164" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E164" s="41">
+        <v>160</v>
+      </c>
+      <c r="F164" s="38">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+      <c r="G164" s="41">
+        <v>160</v>
+      </c>
+      <c r="H164" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I164" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B165" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C165" s="41">
+        <v>161</v>
+      </c>
+      <c r="D165" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E165" s="41">
+        <v>161</v>
+      </c>
+      <c r="F165" s="38">
+        <f t="shared" si="11"/>
+        <v>150.5</v>
+      </c>
+      <c r="G165" s="41">
+        <v>161</v>
+      </c>
+      <c r="H165" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I165" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B166" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C166" s="41">
+        <v>162</v>
+      </c>
+      <c r="D166" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E166" s="41">
+        <v>162</v>
+      </c>
+      <c r="F166" s="38">
+        <f t="shared" si="11"/>
+        <v>151</v>
+      </c>
+      <c r="G166" s="41">
+        <v>162</v>
+      </c>
+      <c r="H166" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I166" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B167" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C167" s="41">
+        <v>163</v>
+      </c>
+      <c r="D167" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E167" s="41">
+        <v>163</v>
+      </c>
+      <c r="F167" s="38">
+        <f t="shared" si="11"/>
+        <v>151.5</v>
+      </c>
+      <c r="G167" s="41">
+        <v>163</v>
+      </c>
+      <c r="H167" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I167" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B168" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C168" s="41">
+        <v>164</v>
+      </c>
+      <c r="D168" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E168" s="41">
+        <v>164</v>
+      </c>
+      <c r="F168" s="38">
+        <f t="shared" si="11"/>
+        <v>152</v>
+      </c>
+      <c r="G168" s="41">
+        <v>164</v>
+      </c>
+      <c r="H168" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I168" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B169" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C169" s="41">
+        <v>165</v>
+      </c>
+      <c r="D169" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E169" s="41">
+        <v>165</v>
+      </c>
+      <c r="F169" s="38">
+        <f t="shared" si="11"/>
+        <v>152.5</v>
+      </c>
+      <c r="G169" s="41">
+        <v>165</v>
+      </c>
+      <c r="H169" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I169" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B170" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C170" s="41">
+        <v>166</v>
+      </c>
+      <c r="D170" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E170" s="41">
+        <v>166</v>
+      </c>
+      <c r="F170" s="38">
+        <f t="shared" si="11"/>
+        <v>153</v>
+      </c>
+      <c r="G170" s="41">
+        <v>166</v>
+      </c>
+      <c r="H170" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I170" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="B171" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C171" s="41">
+        <v>167</v>
+      </c>
+      <c r="D171" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E171" s="41">
+        <v>167</v>
+      </c>
+      <c r="F171" s="38">
+        <f t="shared" si="11"/>
+        <v>153.5</v>
+      </c>
+      <c r="G171" s="41">
+        <v>167</v>
+      </c>
+      <c r="H171" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I171" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B172" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C172" s="41">
+        <v>168</v>
+      </c>
+      <c r="D172" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E172" s="41">
+        <v>168</v>
+      </c>
+      <c r="F172" s="38">
+        <f t="shared" si="11"/>
+        <v>154</v>
+      </c>
+      <c r="G172" s="41">
+        <v>168</v>
+      </c>
+      <c r="H172" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I172" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B173" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C173" s="41">
+        <v>169</v>
+      </c>
+      <c r="D173" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E173" s="41">
+        <v>169</v>
+      </c>
+      <c r="F173" s="38">
+        <f t="shared" si="11"/>
+        <v>154.5</v>
+      </c>
+      <c r="G173" s="41">
+        <v>169</v>
+      </c>
+      <c r="H173" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I173" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B174" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C174" s="41">
+        <v>170</v>
+      </c>
+      <c r="D174" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E174" s="41">
+        <v>170</v>
+      </c>
+      <c r="F174" s="38">
+        <f t="shared" si="11"/>
+        <v>155</v>
+      </c>
+      <c r="G174" s="41">
+        <v>170</v>
+      </c>
+      <c r="H174" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I174" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B175" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C175" s="41">
+        <v>171</v>
+      </c>
+      <c r="D175" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E175" s="41">
+        <v>171</v>
+      </c>
+      <c r="F175" s="38">
+        <f t="shared" si="11"/>
+        <v>155.5</v>
+      </c>
+      <c r="G175" s="41">
+        <v>171</v>
+      </c>
+      <c r="H175" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I175" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B176" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C176" s="41">
+        <v>172</v>
+      </c>
+      <c r="D176" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E176" s="41">
+        <v>172</v>
+      </c>
+      <c r="F176" s="38">
+        <f t="shared" si="11"/>
+        <v>156</v>
+      </c>
+      <c r="G176" s="41">
+        <v>172</v>
+      </c>
+      <c r="H176" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I176" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B177" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C177" s="41">
+        <v>173</v>
+      </c>
+      <c r="D177" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E177" s="41">
+        <v>173</v>
+      </c>
+      <c r="F177" s="38">
+        <f t="shared" si="11"/>
+        <v>156.5</v>
+      </c>
+      <c r="G177" s="41">
+        <v>173</v>
+      </c>
+      <c r="H177" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I177" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B178" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C178" s="41">
+        <v>174</v>
+      </c>
+      <c r="D178" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E178" s="41">
+        <v>174</v>
+      </c>
+      <c r="F178" s="38">
+        <f t="shared" si="11"/>
+        <v>157</v>
+      </c>
+      <c r="G178" s="41">
+        <v>174</v>
+      </c>
+      <c r="H178" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I178" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B179" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C179" s="41">
+        <v>175</v>
+      </c>
+      <c r="D179" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E179" s="41">
+        <v>175</v>
+      </c>
+      <c r="F179" s="38">
+        <f t="shared" si="11"/>
+        <v>157.5</v>
+      </c>
+      <c r="G179" s="41">
+        <v>175</v>
+      </c>
+      <c r="H179" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I179" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="B180" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C180" s="41">
+        <v>176</v>
+      </c>
+      <c r="D180" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E180" s="41">
+        <v>176</v>
+      </c>
+      <c r="F180" s="38">
+        <f t="shared" si="11"/>
+        <v>158</v>
+      </c>
+      <c r="G180" s="41">
+        <v>176</v>
+      </c>
+      <c r="H180" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I180" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B181" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C181" s="41">
+        <v>177</v>
+      </c>
+      <c r="D181" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E181" s="41">
+        <v>177</v>
+      </c>
+      <c r="F181" s="38">
+        <f t="shared" si="11"/>
+        <v>158.5</v>
+      </c>
+      <c r="G181" s="41">
+        <v>177</v>
+      </c>
+      <c r="H181" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I181" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B182" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C182" s="41">
+        <v>178</v>
+      </c>
+      <c r="D182" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E182" s="41">
+        <v>178</v>
+      </c>
+      <c r="F182" s="38">
+        <f t="shared" si="11"/>
+        <v>159</v>
+      </c>
+      <c r="G182" s="41">
+        <v>178</v>
+      </c>
+      <c r="H182" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I182" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B183" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C183" s="41">
+        <v>179</v>
+      </c>
+      <c r="D183" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E183" s="41">
+        <v>179</v>
+      </c>
+      <c r="F183" s="38">
+        <f t="shared" si="11"/>
+        <v>159.5</v>
+      </c>
+      <c r="G183" s="41">
+        <v>179</v>
+      </c>
+      <c r="H183" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I183" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B184" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C184" s="41">
+        <v>180</v>
+      </c>
+      <c r="D184" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E184" s="41">
+        <v>180</v>
+      </c>
+      <c r="F184" s="38">
+        <f t="shared" si="11"/>
+        <v>160</v>
+      </c>
+      <c r="G184" s="41">
+        <v>180</v>
+      </c>
+      <c r="H184" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I184" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="B185" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C185" s="41">
+        <v>181</v>
+      </c>
+      <c r="D185" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E185" s="41">
+        <v>181</v>
+      </c>
+      <c r="F185" s="38">
+        <f t="shared" si="11"/>
+        <v>160.5</v>
+      </c>
+      <c r="G185" s="41">
+        <v>181</v>
+      </c>
+      <c r="H185" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I185" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B186" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C186" s="41">
+        <v>182</v>
+      </c>
+      <c r="D186" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E186" s="41">
+        <v>182</v>
+      </c>
+      <c r="F186" s="38">
+        <f t="shared" si="11"/>
+        <v>161</v>
+      </c>
+      <c r="G186" s="41">
+        <v>182</v>
+      </c>
+      <c r="H186" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I186" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="B187" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C187" s="41">
+        <v>183</v>
+      </c>
+      <c r="D187" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E187" s="41">
+        <v>183</v>
+      </c>
+      <c r="F187" s="38">
+        <f t="shared" si="11"/>
+        <v>161.5</v>
+      </c>
+      <c r="G187" s="41">
+        <v>183</v>
+      </c>
+      <c r="H187" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I187" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="B188" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C188" s="41">
+        <v>184</v>
+      </c>
+      <c r="D188" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E188" s="41">
+        <v>184</v>
+      </c>
+      <c r="F188" s="38">
+        <f t="shared" si="11"/>
+        <v>162</v>
+      </c>
+      <c r="G188" s="41">
+        <v>184</v>
+      </c>
+      <c r="H188" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I188" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B189" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C189" s="41">
+        <v>185</v>
+      </c>
+      <c r="D189" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E189" s="41">
+        <v>185</v>
+      </c>
+      <c r="F189" s="38">
+        <f t="shared" si="11"/>
+        <v>162.5</v>
+      </c>
+      <c r="G189" s="41">
+        <v>185</v>
+      </c>
+      <c r="H189" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I189" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B190" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C190" s="41">
+        <v>186</v>
+      </c>
+      <c r="D190" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E190" s="41">
+        <v>186</v>
+      </c>
+      <c r="F190" s="38">
+        <f t="shared" si="11"/>
+        <v>163</v>
+      </c>
+      <c r="G190" s="41">
+        <v>186</v>
+      </c>
+      <c r="H190" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I190" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="B191" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C191" s="41">
+        <v>187</v>
+      </c>
+      <c r="D191" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E191" s="41">
+        <v>187</v>
+      </c>
+      <c r="F191" s="38">
+        <f t="shared" si="11"/>
+        <v>163.5</v>
+      </c>
+      <c r="G191" s="41">
+        <v>187</v>
+      </c>
+      <c r="H191" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I191" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B192" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C192" s="41">
+        <v>188</v>
+      </c>
+      <c r="D192" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E192" s="41">
+        <v>188</v>
+      </c>
+      <c r="F192" s="38">
+        <f t="shared" si="11"/>
+        <v>164</v>
+      </c>
+      <c r="G192" s="41">
+        <v>188</v>
+      </c>
+      <c r="H192" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I192" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="B193" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C193" s="41">
+        <v>189</v>
+      </c>
+      <c r="D193" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E193" s="41">
+        <v>189</v>
+      </c>
+      <c r="F193" s="38">
+        <f t="shared" si="11"/>
+        <v>164.5</v>
+      </c>
+      <c r="G193" s="41">
+        <v>189</v>
+      </c>
+      <c r="H193" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I193" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="B194" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C194" s="41">
+        <v>190</v>
+      </c>
+      <c r="D194" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E194" s="41">
+        <v>190</v>
+      </c>
+      <c r="F194" s="38">
+        <f t="shared" si="11"/>
+        <v>165</v>
+      </c>
+      <c r="G194" s="41">
+        <v>190</v>
+      </c>
+      <c r="H194" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I194" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B195" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C195" s="41">
+        <v>191</v>
+      </c>
+      <c r="D195" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E195" s="41">
+        <v>191</v>
+      </c>
+      <c r="F195" s="38">
+        <f t="shared" si="11"/>
+        <v>165.5</v>
+      </c>
+      <c r="G195" s="41">
+        <v>191</v>
+      </c>
+      <c r="H195" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I195" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B196" s="38">
+        <f t="shared" si="9"/>
+        <v>50.5</v>
+      </c>
+      <c r="C196" s="41">
+        <v>192</v>
+      </c>
+      <c r="D196" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E196" s="41">
+        <v>192</v>
+      </c>
+      <c r="F196" s="38">
+        <f t="shared" si="11"/>
+        <v>166</v>
+      </c>
+      <c r="G196" s="41">
+        <v>192</v>
+      </c>
+      <c r="H196" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I196" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B197" s="38">
+        <f t="shared" ref="B197:B205" si="12">50 + (1 / 2) + (0 * 2)</f>
+        <v>50.5</v>
+      </c>
+      <c r="C197" s="41">
+        <v>193</v>
+      </c>
+      <c r="D197" s="38">
+        <f t="shared" ref="D197:D205" si="13">50 + (0 / 2) + (0 * 2)</f>
+        <v>50</v>
+      </c>
+      <c r="E197" s="41">
+        <v>193</v>
+      </c>
+      <c r="F197" s="38">
+        <f t="shared" ref="F197:F205" si="14">50 + (G197 / 2) + (10 * 2)</f>
+        <v>166.5</v>
+      </c>
+      <c r="G197" s="41">
+        <v>193</v>
+      </c>
+      <c r="H197" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I197" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="B198" s="38">
+        <f t="shared" si="12"/>
+        <v>50.5</v>
+      </c>
+      <c r="C198" s="41">
+        <v>194</v>
+      </c>
+      <c r="D198" s="38">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="E198" s="41">
+        <v>194</v>
+      </c>
+      <c r="F198" s="38">
+        <f t="shared" si="14"/>
+        <v>167</v>
+      </c>
+      <c r="G198" s="41">
+        <v>194</v>
+      </c>
+      <c r="H198" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I198" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B199" s="38">
+        <f t="shared" si="12"/>
+        <v>50.5</v>
+      </c>
+      <c r="C199" s="41">
+        <v>195</v>
+      </c>
+      <c r="D199" s="38">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="E199" s="41">
+        <v>195</v>
+      </c>
+      <c r="F199" s="38">
+        <f t="shared" si="14"/>
+        <v>167.5</v>
+      </c>
+      <c r="G199" s="41">
+        <v>195</v>
+      </c>
+      <c r="H199" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I199" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="B200" s="38">
+        <f t="shared" si="12"/>
+        <v>50.5</v>
+      </c>
+      <c r="C200" s="41">
+        <v>196</v>
+      </c>
+      <c r="D200" s="38">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="E200" s="41">
+        <v>196</v>
+      </c>
+      <c r="F200" s="38">
+        <f t="shared" si="14"/>
+        <v>168</v>
+      </c>
+      <c r="G200" s="41">
+        <v>196</v>
+      </c>
+      <c r="H200" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I200" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B201" s="38">
+        <f t="shared" si="12"/>
+        <v>50.5</v>
+      </c>
+      <c r="C201" s="41">
+        <v>197</v>
+      </c>
+      <c r="D201" s="38">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="E201" s="41">
+        <v>197</v>
+      </c>
+      <c r="F201" s="38">
+        <f t="shared" si="14"/>
+        <v>168.5</v>
+      </c>
+      <c r="G201" s="41">
+        <v>197</v>
+      </c>
+      <c r="H201" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I201" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B202" s="38">
+        <f t="shared" si="12"/>
+        <v>50.5</v>
+      </c>
+      <c r="C202" s="41">
+        <v>198</v>
+      </c>
+      <c r="D202" s="38">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="E202" s="41">
+        <v>198</v>
+      </c>
+      <c r="F202" s="38">
+        <f t="shared" si="14"/>
+        <v>169</v>
+      </c>
+      <c r="G202" s="41">
+        <v>198</v>
+      </c>
+      <c r="H202" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I202" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="B203" s="38">
+        <f t="shared" si="12"/>
+        <v>50.5</v>
+      </c>
+      <c r="C203" s="41">
+        <v>199</v>
+      </c>
+      <c r="D203" s="38">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="E203" s="41">
+        <v>199</v>
+      </c>
+      <c r="F203" s="38">
+        <f t="shared" si="14"/>
+        <v>169.5</v>
+      </c>
+      <c r="G203" s="41">
+        <v>199</v>
+      </c>
+      <c r="H203" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I203" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B204" s="38">
+        <f t="shared" si="12"/>
+        <v>50.5</v>
+      </c>
+      <c r="C204" s="41">
+        <v>200</v>
+      </c>
+      <c r="D204" s="38">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="E204" s="41">
+        <v>200</v>
+      </c>
+      <c r="F204" s="38">
+        <f t="shared" si="14"/>
+        <v>170</v>
+      </c>
+      <c r="G204" s="41">
+        <v>200</v>
+      </c>
+      <c r="H204" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I204" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B205" s="38">
+        <f t="shared" si="12"/>
+        <v>50.5</v>
+      </c>
+      <c r="C205" s="41">
+        <v>201</v>
+      </c>
+      <c r="D205" s="38">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="E205" s="41">
+        <v>201</v>
+      </c>
+      <c r="F205" s="38">
+        <f t="shared" si="14"/>
+        <v>170.5</v>
+      </c>
+      <c r="G205" s="41">
+        <v>201</v>
+      </c>
+      <c r="H205" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I205" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>